--- a/Shizhan/test_data/recharge_data.xlsx
+++ b/Shizhan/test_data/recharge_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,12 +43,16 @@
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,23 +187,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,23 +222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,9 +410,10 @@
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="36.75" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +426,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,7 +458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>

--- a/Shizhan/test_data/recharge_data.xlsx
+++ b/Shizhan/test_data/recharge_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,58 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_recharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入手机号充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误格式手机号充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册手机号充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入金额充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额超过2位小数充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额负数充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非数字金额充值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,219 +450,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50.375" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>13667692121</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>1000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13667692122</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
         <v>2000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>13667692123</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="G3" s="1">
+        <v>20103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1366769212</v>
+      </c>
+      <c r="E4" s="1">
         <v>3000</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13667692124</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G4" s="1">
+        <v>20109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18010071111</v>
+      </c>
+      <c r="E5" s="1">
         <v>4000</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="G5" s="1">
+        <v>20104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
         <v>13667692125</v>
       </c>
-      <c r="C6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G6" s="1">
+        <v>20115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
         <v>13667692126</v>
       </c>
-      <c r="C7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>11.111000000000001</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="G7" s="1">
+        <v>20116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>13667692127</v>
       </c>
-      <c r="C8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="G8" s="1">
+        <v>20117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>13667692128</v>
       </c>
-      <c r="C9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="G9" s="1">
+        <v>20118</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
         <v>13667692129</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>9000</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="G10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
         <v>13667692130</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>10000</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13667692131</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>13667692132</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13667692133</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G11" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
